--- a/vendor/mysql_audo_init/data_source_info.xlsx
+++ b/vendor/mysql_audo_init/data_source_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>http://api.digcredit.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lp集成接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lp_integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎聘集成接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -444,9 +464,10 @@
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +486,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,7 +510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -504,6 +528,23 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
